--- a/branches/fix-identifiers-and-page-content/ValueSet-vs-treatment-dispensed-prescribed.xlsx
+++ b/branches/fix-identifiers-and-page-content/ValueSet-vs-treatment-dispensed-prescribed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T08:26:45+00:00</t>
+    <t>2023-03-09T08:45:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/fix-identifiers-and-page-content/ValueSet-vs-treatment-dispensed-prescribed.xlsx
+++ b/branches/fix-identifiers-and-page-content/ValueSet-vs-treatment-dispensed-prescribed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T08:45:51+00:00</t>
+    <t>2023-03-09T09:35:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/fix-identifiers-and-page-content/ValueSet-vs-treatment-dispensed-prescribed.xlsx
+++ b/branches/fix-identifiers-and-page-content/ValueSet-vs-treatment-dispensed-prescribed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T09:35:00+00:00</t>
+    <t>2023-03-09T09:59:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
